--- a/results/palaepaphos/data/loi_PP.xlsx
+++ b/results/palaepaphos/data/loi_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\loi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012BC7B2-19FC-45E2-9864-17224D298FD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1408B9-D919-4709-8A01-7D24CC68062C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="705" windowWidth="20070" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>sample</t>
   </si>
@@ -48,21 +48,6 @@
     <t>sample wet</t>
   </si>
   <si>
-    <t>dry weight</t>
-  </si>
-  <si>
-    <t>after 550 C</t>
-  </si>
-  <si>
-    <t>after 950 C</t>
-  </si>
-  <si>
-    <t>* crucible was not dried in 100 C</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>PP-1</t>
   </si>
   <si>
@@ -142,6 +127,24 @@
   </si>
   <si>
     <t>PP-8_2</t>
+  </si>
+  <si>
+    <t>dry_weight</t>
+  </si>
+  <si>
+    <t>after_550_C</t>
+  </si>
+  <si>
+    <t>after_950_C</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>mudbrick</t>
   </si>
 </sst>
 </file>
@@ -151,11 +154,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -188,13 +198,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J912"/>
+  <dimension ref="A1:J911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
@@ -429,708 +440,766 @@
     <col min="9" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>8.3824000000000005</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10.327</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E28" si="0">D2-C2</f>
+        <v>1.9445999999999994</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.289899999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10.175700000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9.8228000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="2">
+        <v>8.3806999999999992</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10.7516</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3709000000000007</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.698</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10.5945</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10.2049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="C4" s="2">
+        <v>8.5226000000000006</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10.9956</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.472999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10.943</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10.8042</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10.3123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C5" s="2">
+        <v>9.5596999999999994</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11.981400000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4217000000000013</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.9122</v>
+      </c>
+      <c r="G5" s="2">
+        <v>11.810499999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11.410600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C6" s="2">
+        <v>9.3607999999999993</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11.825900000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4651000000000014</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11.738200000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>11.5747</v>
+      </c>
+      <c r="H6" s="2">
+        <v>11.1404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
-        <v>8.3824000000000005</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10.327</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E29" si="0">D3-C3</f>
-        <v>1.9445999999999994</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10.289899999999999</v>
-      </c>
-      <c r="G3" s="3">
-        <v>10.175700000000001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>9.8228000000000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C7" s="2">
+        <v>8.4419000000000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10.716100000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2742000000000004</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10.652799999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10.541399999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10.1785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>8.3806999999999992</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10.7516</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3709000000000007</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10.698</v>
-      </c>
-      <c r="G4" s="3">
-        <v>10.5945</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10.2049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C8" s="2">
+        <v>9.5180000000000007</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11.820399999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3023999999999987</v>
+      </c>
+      <c r="F8" s="2">
+        <v>11.7409</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11.6168</v>
+      </c>
+      <c r="H8" s="2">
+        <v>11.244999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
-        <v>8.5226000000000006</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10.9956</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>2.472999999999999</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10.943</v>
-      </c>
-      <c r="G5" s="3">
-        <v>10.8042</v>
-      </c>
-      <c r="H5" s="3">
-        <v>10.3123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C9" s="2">
+        <v>9.5230999999999995</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11.9184</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3953000000000007</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11.838900000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11.72</v>
+      </c>
+      <c r="H9" s="2">
+        <v>11.2887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
-        <v>9.5596999999999994</v>
-      </c>
-      <c r="D6" s="3">
-        <v>11.981400000000001</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4217000000000013</v>
-      </c>
-      <c r="F6" s="3">
-        <v>11.9122</v>
-      </c>
-      <c r="G6" s="3">
-        <v>11.810499999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>11.410600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="2">
+        <v>8.1001999999999992</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.6372999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5371000000000006</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9.5952000000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.4838000000000005</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9.2297999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
-        <v>9.3607999999999993</v>
-      </c>
-      <c r="D7" s="3">
-        <v>11.825900000000001</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4651000000000014</v>
-      </c>
-      <c r="F7" s="3">
-        <v>11.738200000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <v>11.5747</v>
-      </c>
-      <c r="H7" s="3">
-        <v>11.1404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C11" s="2">
+        <v>9.3353999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10.887499999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5520999999999994</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10.861700000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10.807399999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10.5931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
-        <v>8.4419000000000004</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10.716100000000001</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2742000000000004</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10.652799999999999</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10.541399999999999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10.1785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C12" s="2">
+        <v>8.7165999999999997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11.132099999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4154999999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11.0228</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10.9305</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10.460100000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
-        <v>9.5180000000000007</v>
-      </c>
-      <c r="D9" s="3">
-        <v>11.820399999999999</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3023999999999987</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11.7409</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11.6168</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11.244999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C13" s="2">
+        <v>8.7135999999999996</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11.164899999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4512999999999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>11.108700000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>11.041700000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10.523999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
-        <v>9.5230999999999995</v>
-      </c>
-      <c r="D10" s="3">
-        <v>11.9184</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3953000000000007</v>
-      </c>
-      <c r="F10" s="3">
-        <v>11.838900000000001</v>
-      </c>
-      <c r="G10" s="3">
-        <v>11.72</v>
-      </c>
-      <c r="H10" s="3">
-        <v>11.2887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="C14" s="2">
+        <v>9.1309000000000005</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11.379099999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2481999999999989</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11.326700000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11.257400000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10.7936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3">
-        <v>8.1001999999999992</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9.6372999999999998</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5371000000000006</v>
-      </c>
-      <c r="F11" s="3">
-        <v>9.5952000000000002</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9.4838000000000005</v>
-      </c>
-      <c r="H11" s="3">
-        <v>9.2297999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C15" s="2">
+        <v>8.6841000000000008</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10.5906</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9064999999999994</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10.553900000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10.501200000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10.089499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
-        <v>9.3353999999999999</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10.887499999999999</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5520999999999994</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10.861700000000001</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10.807399999999999</v>
-      </c>
-      <c r="H12" s="3">
-        <v>10.5931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="C16" s="2">
+        <v>9.4435000000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11.862299999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4187999999999992</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11.8134</v>
+      </c>
+      <c r="G16" s="2">
+        <v>11.722799999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <v>11.1495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3">
-        <v>8.7165999999999997</v>
-      </c>
-      <c r="D13" s="3">
-        <v>11.132099999999999</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4154999999999998</v>
-      </c>
-      <c r="F13" s="3">
-        <v>11.0228</v>
-      </c>
-      <c r="G13" s="3">
-        <v>10.9305</v>
-      </c>
-      <c r="H13" s="3">
-        <v>10.460100000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C17" s="2">
+        <v>8.6902000000000008</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10.7079</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0176999999999996</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10.677300000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10.6303</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10.2179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3">
-        <v>8.7135999999999996</v>
-      </c>
-      <c r="D14" s="3">
-        <v>11.164899999999999</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4512999999999998</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11.108700000000001</v>
-      </c>
-      <c r="G14" s="3">
-        <v>11.041700000000001</v>
-      </c>
-      <c r="H14" s="3">
-        <v>10.523999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="2">
+        <v>8.8786000000000005</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11.002599999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1239999999999988</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10.9481</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10.8682</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10.4587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3">
-        <v>9.1309000000000005</v>
-      </c>
-      <c r="D15" s="3">
-        <v>11.379099999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2481999999999989</v>
-      </c>
-      <c r="F15" s="3">
-        <v>11.326700000000001</v>
-      </c>
-      <c r="G15" s="3">
-        <v>11.257400000000001</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10.7936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="C19" s="2">
+        <v>9.5188000000000006</v>
+      </c>
+      <c r="D19" s="2">
+        <v>11.7562</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2373999999999992</v>
+      </c>
+      <c r="F19" s="2">
+        <v>11.7212</v>
+      </c>
+      <c r="G19" s="2">
+        <v>11.667199999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10.9537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3">
-        <v>8.6841000000000008</v>
-      </c>
-      <c r="D16" s="3">
-        <v>10.5906</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9064999999999994</v>
-      </c>
-      <c r="F16" s="3">
-        <v>10.553900000000001</v>
-      </c>
-      <c r="G16" s="3">
-        <v>10.501200000000001</v>
-      </c>
-      <c r="H16" s="3">
-        <v>10.089499999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="C20" s="2">
+        <v>8.9968000000000004</v>
+      </c>
+      <c r="D20" s="2">
+        <v>11.5068</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>11.4741</v>
+      </c>
+      <c r="G20" s="2">
+        <v>11.430999999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10.608700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3">
-        <v>9.4435000000000002</v>
-      </c>
-      <c r="D17" s="3">
-        <v>11.862299999999999</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4187999999999992</v>
-      </c>
-      <c r="F17" s="3">
-        <v>11.8134</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11.722799999999999</v>
-      </c>
-      <c r="H17" s="3">
-        <v>11.1495</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="C21" s="2">
+        <v>8.9995999999999992</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11.1477</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1481000000000012</v>
+      </c>
+      <c r="F21" s="2">
+        <v>11.109500000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10.98</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10.560499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3">
-        <v>8.6902000000000008</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10.7079</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0176999999999996</v>
-      </c>
-      <c r="F18" s="3">
-        <v>10.677300000000001</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10.6303</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10.2179</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C22" s="2">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11.1837</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5897000000000006</v>
+      </c>
+      <c r="F22" s="2">
+        <v>11.131500000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>11.0191</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10.577199999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3">
-        <v>8.8786000000000005</v>
-      </c>
-      <c r="D19" s="3">
-        <v>11.002599999999999</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1239999999999988</v>
-      </c>
-      <c r="F19" s="3">
-        <v>10.9481</v>
-      </c>
-      <c r="G19" s="3">
-        <v>10.8682</v>
-      </c>
-      <c r="H19" s="3">
-        <v>10.4587</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="C23" s="2">
+        <v>9.4880999999999993</v>
+      </c>
+      <c r="D23" s="2">
+        <v>11.8889</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4008000000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <v>11.846299999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>11.716100000000001</v>
+      </c>
+      <c r="H23" s="2">
+        <v>11.212199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3">
-        <v>9.5188000000000006</v>
-      </c>
-      <c r="D20" s="3">
-        <v>11.7562</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2373999999999992</v>
-      </c>
-      <c r="F20" s="3">
-        <v>11.7212</v>
-      </c>
-      <c r="G20" s="3">
-        <v>11.667199999999999</v>
-      </c>
-      <c r="H20" s="3">
-        <v>10.9537</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="C24" s="2">
+        <v>9.4640000000000004</v>
+      </c>
+      <c r="D24" s="2">
+        <v>11.9177</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4536999999999995</v>
+      </c>
+      <c r="F24" s="2">
+        <v>11.847</v>
+      </c>
+      <c r="G24" s="2">
+        <v>11.7378</v>
+      </c>
+      <c r="H24" s="2">
+        <v>11.2613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3">
-        <v>8.9968000000000004</v>
-      </c>
-      <c r="D21" s="3">
-        <v>11.5068</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F21" s="3">
-        <v>11.4741</v>
-      </c>
-      <c r="G21" s="3">
-        <v>11.430999999999999</v>
-      </c>
-      <c r="H21" s="3">
-        <v>10.608700000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="C25" s="2">
+        <v>9.3041</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11.9566</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6524999999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>11.8721</v>
+      </c>
+      <c r="G25" s="2">
+        <v>11.6952</v>
+      </c>
+      <c r="H25" s="2">
+        <v>11.206799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3">
-        <v>8.9995999999999992</v>
-      </c>
-      <c r="D22" s="3">
-        <v>11.1477</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1481000000000012</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11.109500000000001</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10.98</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10.560499999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="C26" s="2">
+        <v>8.9298000000000002</v>
+      </c>
+      <c r="D26" s="2">
+        <v>11.196400000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2666000000000004</v>
+      </c>
+      <c r="F26" s="2">
+        <v>11.135899999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>11.017899999999999</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10.669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3">
-        <v>8.5939999999999994</v>
-      </c>
-      <c r="D23" s="3">
-        <v>11.1837</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5897000000000006</v>
-      </c>
-      <c r="F23" s="3">
-        <v>11.131500000000001</v>
-      </c>
-      <c r="G23" s="3">
-        <v>11.0191</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10.577199999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="C27" s="2">
+        <v>8.4735999999999994</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10.8308</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3572000000000006</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10.7651</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10.638199999999999</v>
+      </c>
+      <c r="H27" s="2">
+        <v>10.2286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3">
-        <v>9.4880999999999993</v>
-      </c>
-      <c r="D24" s="3">
-        <v>11.8889</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4008000000000003</v>
-      </c>
-      <c r="F24" s="3">
-        <v>11.846299999999999</v>
-      </c>
-      <c r="G24" s="3">
-        <v>11.716100000000001</v>
-      </c>
-      <c r="H24" s="3">
-        <v>11.212199999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3">
-        <v>9.4640000000000004</v>
-      </c>
-      <c r="D25" s="3">
-        <v>11.9177</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4536999999999995</v>
-      </c>
-      <c r="F25" s="3">
-        <v>11.847</v>
-      </c>
-      <c r="G25" s="3">
-        <v>11.7378</v>
-      </c>
-      <c r="H25" s="3">
-        <v>11.2613</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3">
-        <v>9.3041</v>
-      </c>
-      <c r="D26" s="3">
-        <v>11.9566</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6524999999999999</v>
-      </c>
-      <c r="F26" s="3">
-        <v>11.8721</v>
-      </c>
-      <c r="G26" s="3">
-        <v>11.6952</v>
-      </c>
-      <c r="H26" s="3">
-        <v>11.206799999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3">
-        <v>8.9298000000000002</v>
-      </c>
-      <c r="D27" s="3">
-        <v>11.196400000000001</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2666000000000004</v>
-      </c>
-      <c r="F27" s="3">
-        <v>11.135899999999999</v>
-      </c>
-      <c r="G27" s="3">
-        <v>11.017899999999999</v>
-      </c>
-      <c r="H27" s="3">
-        <v>10.669</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="3">
-        <v>8.4735999999999994</v>
-      </c>
-      <c r="D28" s="3">
-        <v>10.8308</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3572000000000006</v>
-      </c>
-      <c r="F28" s="3">
-        <v>10.7651</v>
-      </c>
-      <c r="G28" s="3">
-        <v>10.638199999999999</v>
-      </c>
-      <c r="H28" s="3">
-        <v>10.2286</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="C28" s="2">
         <v>9.5160999999999998</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D28" s="2">
         <v>12.301299999999999</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2.7851999999999997</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F28" s="2">
         <v>12.217599999999999</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G28" s="2">
         <v>12.0763</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H28" s="2">
         <v>11.564299999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2010,9 +2079,8 @@
     <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/palaepaphos/data/loi_PP.xlsx
+++ b/results/palaepaphos/data/loi_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1408B9-D919-4709-8A01-7D24CC68062C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F752C5A-A7DF-41B0-8F92-046825991DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="105" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>sample</t>
   </si>
@@ -141,10 +141,43 @@
     <t>type</t>
   </si>
   <si>
-    <t>soil</t>
-  </si>
-  <si>
     <t>mudbrick</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>Hadjuabudllah l1</t>
+  </si>
+  <si>
+    <t>soil layer 1</t>
+  </si>
+  <si>
+    <t>Hadjuabudllah l2</t>
+  </si>
+  <si>
+    <t>soil layer 2</t>
+  </si>
+  <si>
+    <t>Laona soil l2</t>
+  </si>
+  <si>
+    <t>Laona soil l3</t>
+  </si>
+  <si>
+    <t>soil layer 3</t>
+  </si>
+  <si>
+    <t>Laona soil l1</t>
+  </si>
+  <si>
+    <t>LA54:4</t>
+  </si>
+  <si>
+    <t>LA59:2</t>
+  </si>
+  <si>
+    <t>LA54:7</t>
   </si>
 </sst>
 </file>
@@ -154,11 +187,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -176,6 +216,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,14 +244,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,785 +471,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J911"/>
+  <dimension ref="A1:I911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A28"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="4" customWidth="1"/>
+    <col min="10" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8.3824000000000005</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.327</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D28" si="0">C2-B2</f>
+        <v>1.9445999999999994</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.289899999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.175700000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9.8228000000000009</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.3806999999999992</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10.7516</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3709000000000007</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.698</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.5945</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10.2049</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.5226000000000006</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.9956</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.472999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.943</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10.8042</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10.3123</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.5596999999999994</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11.981400000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4217000000000013</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11.9122</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.810499999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>11.410600000000001</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9.3607999999999993</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11.825900000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4651000000000014</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11.738200000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11.5747</v>
+      </c>
+      <c r="G6" s="2">
+        <v>11.1404</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.4419000000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.716100000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2742000000000004</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10.652799999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10.541399999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10.1785</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.5180000000000007</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11.820399999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3023999999999987</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11.7409</v>
+      </c>
+      <c r="F8" s="2">
+        <v>11.6168</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11.244999999999999</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9.5230999999999995</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11.9184</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3953000000000007</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11.838900000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11.72</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11.2887</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8.1001999999999992</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.6372999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5371000000000006</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.5952000000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9.4838000000000005</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.2297999999999991</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.3824000000000005</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10.327</v>
-      </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E28" si="0">D2-C2</f>
-        <v>1.9445999999999994</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10.289899999999999</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10.175700000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9.8228000000000009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9.3353999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.887499999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5520999999999994</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10.861700000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10.807399999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10.5931</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.3806999999999992</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10.7516</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3709000000000007</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10.698</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10.5945</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10.2049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8.7165999999999997</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11.132099999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4154999999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11.0228</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10.9305</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10.460100000000001</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8.5226000000000006</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10.9956</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.472999999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10.943</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10.8042</v>
-      </c>
-      <c r="H4" s="2">
-        <v>10.3123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>8.7135999999999996</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11.164899999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4512999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11.108700000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>11.041700000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10.523999999999999</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.5596999999999994</v>
-      </c>
-      <c r="D5" s="2">
-        <v>11.981400000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4217000000000013</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11.9122</v>
-      </c>
-      <c r="G5" s="2">
-        <v>11.810499999999999</v>
-      </c>
-      <c r="H5" s="2">
-        <v>11.410600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9.1309000000000005</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11.379099999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2481999999999989</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11.326700000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11.257400000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10.7936</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.3607999999999993</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11.825900000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4651000000000014</v>
-      </c>
-      <c r="F6" s="2">
-        <v>11.738200000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>11.5747</v>
-      </c>
-      <c r="H6" s="2">
-        <v>11.1404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.6841000000000008</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10.5906</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9064999999999994</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10.553900000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10.501200000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10.089499999999999</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.4419000000000004</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10.716100000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2742000000000004</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10.652799999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10.541399999999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>10.1785</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9.4435000000000002</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11.862299999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4187999999999992</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11.8134</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11.722799999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>11.1495</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.5180000000000007</v>
-      </c>
-      <c r="D8" s="2">
-        <v>11.820399999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3023999999999987</v>
-      </c>
-      <c r="F8" s="2">
-        <v>11.7409</v>
-      </c>
-      <c r="G8" s="2">
-        <v>11.6168</v>
-      </c>
-      <c r="H8" s="2">
-        <v>11.244999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8.6902000000000008</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10.7079</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0176999999999996</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10.677300000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10.6303</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10.2179</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.5230999999999995</v>
-      </c>
-      <c r="D9" s="2">
-        <v>11.9184</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3953000000000007</v>
-      </c>
-      <c r="F9" s="2">
-        <v>11.838900000000001</v>
-      </c>
-      <c r="G9" s="2">
-        <v>11.72</v>
-      </c>
-      <c r="H9" s="2">
-        <v>11.2887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8.1001999999999992</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9.6372999999999998</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5371000000000006</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9.5952000000000002</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9.4838000000000005</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9.2297999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.3353999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10.887499999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5520999999999994</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10.861700000000001</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10.807399999999999</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10.5931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8.7165999999999997</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11.132099999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4154999999999998</v>
-      </c>
-      <c r="F12" s="2">
-        <v>11.0228</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10.9305</v>
-      </c>
-      <c r="H12" s="2">
-        <v>10.460100000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.7135999999999996</v>
-      </c>
-      <c r="D13" s="2">
-        <v>11.164899999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4512999999999998</v>
-      </c>
-      <c r="F13" s="2">
-        <v>11.108700000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>11.041700000000001</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10.523999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9.1309000000000005</v>
-      </c>
-      <c r="D14" s="2">
-        <v>11.379099999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2481999999999989</v>
-      </c>
-      <c r="F14" s="2">
-        <v>11.326700000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>11.257400000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>10.7936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8.6841000000000008</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10.5906</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9064999999999994</v>
-      </c>
-      <c r="F15" s="2">
-        <v>10.553900000000001</v>
-      </c>
-      <c r="G15" s="2">
-        <v>10.501200000000001</v>
-      </c>
-      <c r="H15" s="2">
-        <v>10.089499999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.4435000000000002</v>
-      </c>
-      <c r="D16" s="2">
-        <v>11.862299999999999</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4187999999999992</v>
-      </c>
-      <c r="F16" s="2">
-        <v>11.8134</v>
-      </c>
-      <c r="G16" s="2">
-        <v>11.722799999999999</v>
-      </c>
-      <c r="H16" s="2">
-        <v>11.1495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8.6902000000000008</v>
-      </c>
-      <c r="D17" s="2">
-        <v>10.7079</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0176999999999996</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10.677300000000001</v>
-      </c>
-      <c r="G17" s="2">
-        <v>10.6303</v>
-      </c>
-      <c r="H17" s="2">
-        <v>10.2179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B18" s="2">
+        <v>8.8786000000000005</v>
+      </c>
       <c r="C18" s="2">
-        <v>8.8786000000000005</v>
+        <v>11.002599999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>11.002599999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.1239999999999988</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1239999999999988</v>
+        <v>10.9481</v>
       </c>
       <c r="F18" s="2">
-        <v>10.9481</v>
+        <v>10.8682</v>
       </c>
       <c r="G18" s="2">
-        <v>10.8682</v>
-      </c>
-      <c r="H18" s="2">
         <v>10.4587</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="H18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B19" s="2">
+        <v>9.5188000000000006</v>
+      </c>
       <c r="C19" s="2">
-        <v>9.5188000000000006</v>
+        <v>11.7562</v>
       </c>
       <c r="D19" s="2">
-        <v>11.7562</v>
+        <f t="shared" si="0"/>
+        <v>2.2373999999999992</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2373999999999992</v>
+        <v>11.7212</v>
       </c>
       <c r="F19" s="2">
-        <v>11.7212</v>
+        <v>11.667199999999999</v>
       </c>
       <c r="G19" s="2">
-        <v>11.667199999999999</v>
-      </c>
-      <c r="H19" s="2">
         <v>10.9537</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="H19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B20" s="2">
+        <v>8.9968000000000004</v>
+      </c>
       <c r="C20" s="2">
-        <v>8.9968000000000004</v>
+        <v>11.5068</v>
       </c>
       <c r="D20" s="2">
-        <v>11.5068</v>
+        <f t="shared" si="0"/>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5099999999999998</v>
+        <v>11.4741</v>
       </c>
       <c r="F20" s="2">
-        <v>11.4741</v>
+        <v>11.430999999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>11.430999999999999</v>
-      </c>
-      <c r="H20" s="2">
         <v>10.608700000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="H20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B21" s="2">
+        <v>8.9995999999999992</v>
+      </c>
       <c r="C21" s="2">
-        <v>8.9995999999999992</v>
+        <v>11.1477</v>
       </c>
       <c r="D21" s="2">
-        <v>11.1477</v>
+        <f t="shared" si="0"/>
+        <v>2.1481000000000012</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1481000000000012</v>
+        <v>11.109500000000001</v>
       </c>
       <c r="F21" s="2">
-        <v>11.109500000000001</v>
+        <v>10.98</v>
       </c>
       <c r="G21" s="2">
-        <v>10.98</v>
-      </c>
-      <c r="H21" s="2">
         <v>10.560499999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="H21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B22" s="2">
+        <v>8.5939999999999994</v>
+      </c>
       <c r="C22" s="2">
-        <v>8.5939999999999994</v>
+        <v>11.1837</v>
       </c>
       <c r="D22" s="2">
-        <v>11.1837</v>
+        <f t="shared" si="0"/>
+        <v>2.5897000000000006</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5897000000000006</v>
+        <v>11.131500000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>11.131500000000001</v>
+        <v>11.0191</v>
       </c>
       <c r="G22" s="2">
-        <v>11.0191</v>
-      </c>
-      <c r="H22" s="2">
         <v>10.577199999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="H22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B23" s="2">
+        <v>9.4880999999999993</v>
+      </c>
       <c r="C23" s="2">
-        <v>9.4880999999999993</v>
+        <v>11.8889</v>
       </c>
       <c r="D23" s="2">
-        <v>11.8889</v>
+        <f t="shared" si="0"/>
+        <v>2.4008000000000003</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4008000000000003</v>
+        <v>11.846299999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>11.846299999999999</v>
+        <v>11.716100000000001</v>
       </c>
       <c r="G23" s="2">
-        <v>11.716100000000001</v>
-      </c>
-      <c r="H23" s="2">
         <v>11.212199999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="H23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B24" s="2">
+        <v>9.4640000000000004</v>
+      </c>
       <c r="C24" s="2">
-        <v>9.4640000000000004</v>
+        <v>11.9177</v>
       </c>
       <c r="D24" s="2">
-        <v>11.9177</v>
+        <f t="shared" si="0"/>
+        <v>2.4536999999999995</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4536999999999995</v>
+        <v>11.847</v>
       </c>
       <c r="F24" s="2">
-        <v>11.847</v>
+        <v>11.7378</v>
       </c>
       <c r="G24" s="2">
-        <v>11.7378</v>
-      </c>
-      <c r="H24" s="2">
         <v>11.2613</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="H24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B25" s="2">
+        <v>9.3041</v>
+      </c>
       <c r="C25" s="2">
-        <v>9.3041</v>
+        <v>11.9566</v>
       </c>
       <c r="D25" s="2">
-        <v>11.9566</v>
+        <f t="shared" si="0"/>
+        <v>2.6524999999999999</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6524999999999999</v>
+        <v>11.8721</v>
       </c>
       <c r="F25" s="2">
-        <v>11.8721</v>
+        <v>11.6952</v>
       </c>
       <c r="G25" s="2">
-        <v>11.6952</v>
-      </c>
-      <c r="H25" s="2">
         <v>11.206799999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="H25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B26" s="2">
+        <v>8.9298000000000002</v>
+      </c>
       <c r="C26" s="2">
-        <v>8.9298000000000002</v>
+        <v>11.196400000000001</v>
       </c>
       <c r="D26" s="2">
-        <v>11.196400000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.2666000000000004</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2666000000000004</v>
+        <v>11.135899999999999</v>
       </c>
       <c r="F26" s="2">
-        <v>11.135899999999999</v>
+        <v>11.017899999999999</v>
       </c>
       <c r="G26" s="2">
-        <v>11.017899999999999</v>
-      </c>
-      <c r="H26" s="2">
         <v>10.669</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="H26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B27" s="2">
+        <v>8.4735999999999994</v>
+      </c>
       <c r="C27" s="2">
-        <v>8.4735999999999994</v>
+        <v>10.8308</v>
       </c>
       <c r="D27" s="2">
-        <v>10.8308</v>
+        <f t="shared" si="0"/>
+        <v>2.3572000000000006</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3572000000000006</v>
+        <v>10.7651</v>
       </c>
       <c r="F27" s="2">
-        <v>10.7651</v>
+        <v>10.638199999999999</v>
       </c>
       <c r="G27" s="2">
-        <v>10.638199999999999</v>
-      </c>
-      <c r="H27" s="2">
         <v>10.2286</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="H27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B28" s="2">
+        <v>9.5160999999999998</v>
+      </c>
       <c r="C28" s="2">
-        <v>9.5160999999999998</v>
+        <v>12.301299999999999</v>
       </c>
       <c r="D28" s="2">
-        <v>12.301299999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.7851999999999997</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7851999999999997</v>
+        <v>12.217599999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>12.217599999999999</v>
+        <v>12.0763</v>
       </c>
       <c r="G28" s="2">
-        <v>12.0763</v>
-      </c>
-      <c r="H28" s="2">
         <v>11.564299999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/results/palaepaphos/data/loi_PP.xlsx
+++ b/results/palaepaphos/data/loi_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F752C5A-A7DF-41B0-8F92-046825991DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F958A-B54B-45DC-9C0E-7104061D9603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="105" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="16575" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>sample</t>
   </si>
@@ -150,24 +150,15 @@
     <t>Hadjuabudllah l1</t>
   </si>
   <si>
-    <t>soil layer 1</t>
-  </si>
-  <si>
     <t>Hadjuabudllah l2</t>
   </si>
   <si>
-    <t>soil layer 2</t>
-  </si>
-  <si>
     <t>Laona soil l2</t>
   </si>
   <si>
     <t>Laona soil l3</t>
   </si>
   <si>
-    <t>soil layer 3</t>
-  </si>
-  <si>
     <t>Laona soil l1</t>
   </si>
   <si>
@@ -178,6 +169,9 @@
   </si>
   <si>
     <t>LA54:7</t>
+  </si>
+  <si>
+    <t>soil</t>
   </si>
 </sst>
 </file>
@@ -547,7 +541,7 @@
         <v>37</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -574,10 +568,10 @@
         <v>10.2049</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -604,10 +598,10 @@
         <v>10.3123</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -634,10 +628,10 @@
         <v>11.410600000000001</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,10 +658,10 @@
         <v>11.1404</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,10 +688,10 @@
         <v>10.1785</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,10 +718,10 @@
         <v>11.244999999999999</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,10 +748,10 @@
         <v>11.2887</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +778,7 @@
         <v>9.2297999999999991</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>35</v>
@@ -814,7 +808,7 @@
         <v>10.5931</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>35</v>
@@ -844,7 +838,7 @@
         <v>10.460100000000001</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>35</v>
@@ -874,7 +868,7 @@
         <v>10.523999999999999</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>35</v>
@@ -904,7 +898,7 @@
         <v>10.7936</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>35</v>
@@ -934,7 +928,7 @@
         <v>10.089499999999999</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>35</v>
@@ -964,7 +958,7 @@
         <v>11.1495</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>35</v>
@@ -994,7 +988,7 @@
         <v>10.2179</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>35</v>
@@ -1024,7 +1018,7 @@
         <v>10.4587</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>35</v>
@@ -1054,7 +1048,7 @@
         <v>10.9537</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>35</v>
@@ -1084,7 +1078,7 @@
         <v>10.608700000000001</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>35</v>
@@ -1117,7 +1111,7 @@
         <v>37</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,10 +1138,10 @@
         <v>10.577199999999999</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,10 +1168,10 @@
         <v>11.212199999999999</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,10 +1198,10 @@
         <v>11.2613</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,10 +1228,10 @@
         <v>11.206799999999999</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1264,10 +1258,10 @@
         <v>10.669</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,10 +1288,10 @@
         <v>10.2286</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,10 +1318,10 @@
         <v>11.564299999999999</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/results/palaepaphos/data/loi_PP.xlsx
+++ b/results/palaepaphos/data/loi_PP.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F958A-B54B-45DC-9C0E-7104061D9603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="16575" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="16575" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,30 +47,6 @@
     <t>sample wet</t>
   </si>
   <si>
-    <t>PP-1</t>
-  </si>
-  <si>
-    <t>PP-2</t>
-  </si>
-  <si>
-    <t>PP-3</t>
-  </si>
-  <si>
-    <t>PP-4</t>
-  </si>
-  <si>
-    <t>PP-5</t>
-  </si>
-  <si>
-    <t>PP-6</t>
-  </si>
-  <si>
-    <t>PP-7</t>
-  </si>
-  <si>
-    <t>PP-8</t>
-  </si>
-  <si>
     <t>PP-9</t>
   </si>
   <si>
@@ -105,30 +80,6 @@
     <t>PP-19</t>
   </si>
   <si>
-    <t>PP-1_2</t>
-  </si>
-  <si>
-    <t>PP-2_2</t>
-  </si>
-  <si>
-    <t>PP-3_2</t>
-  </si>
-  <si>
-    <t>PP-4_2</t>
-  </si>
-  <si>
-    <t>PP-5_2</t>
-  </si>
-  <si>
-    <t>PP-6_2</t>
-  </si>
-  <si>
-    <t>PP-7_2</t>
-  </si>
-  <si>
-    <t>PP-8_2</t>
-  </si>
-  <si>
     <t>dry_weight</t>
   </si>
   <si>
@@ -172,12 +123,60 @@
   </si>
   <si>
     <t>soil</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>S-2</t>
+  </si>
+  <si>
+    <t>S-3</t>
+  </si>
+  <si>
+    <t>S-4</t>
+  </si>
+  <si>
+    <t>S-5</t>
+  </si>
+  <si>
+    <t>S-6</t>
+  </si>
+  <si>
+    <t>S-7</t>
+  </si>
+  <si>
+    <t>S-8</t>
+  </si>
+  <si>
+    <t>S-1_2</t>
+  </si>
+  <si>
+    <t>S-2_2</t>
+  </si>
+  <si>
+    <t>S-3_2</t>
+  </si>
+  <si>
+    <t>S-4_2</t>
+  </si>
+  <si>
+    <t>S-5_2</t>
+  </si>
+  <si>
+    <t>S-6_2</t>
+  </si>
+  <si>
+    <t>S-7_2</t>
+  </si>
+  <si>
+    <t>S-8_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
@@ -464,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -499,24 +498,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>8.3824000000000005</v>
@@ -538,15 +537,15 @@
         <v>9.8228000000000009</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
         <v>8.3806999999999992</v>
@@ -568,15 +567,15 @@
         <v>10.2049</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
         <v>8.5226000000000006</v>
@@ -598,15 +597,15 @@
         <v>10.3123</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>9.5596999999999994</v>
@@ -628,15 +627,15 @@
         <v>11.410600000000001</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>9.3607999999999993</v>
@@ -658,15 +657,15 @@
         <v>11.1404</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>8.4419000000000004</v>
@@ -688,15 +687,15 @@
         <v>10.1785</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>9.5180000000000007</v>
@@ -718,15 +717,15 @@
         <v>11.244999999999999</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
         <v>9.5230999999999995</v>
@@ -748,15 +747,15 @@
         <v>11.2887</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>8.1001999999999992</v>
@@ -778,15 +777,15 @@
         <v>9.2297999999999991</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>9.3353999999999999</v>
@@ -808,15 +807,15 @@
         <v>10.5931</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>8.7165999999999997</v>
@@ -838,15 +837,15 @@
         <v>10.460100000000001</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>8.7135999999999996</v>
@@ -868,15 +867,15 @@
         <v>10.523999999999999</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>9.1309000000000005</v>
@@ -898,15 +897,15 @@
         <v>10.7936</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>8.6841000000000008</v>
@@ -928,15 +927,15 @@
         <v>10.089499999999999</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
         <v>9.4435000000000002</v>
@@ -958,15 +957,15 @@
         <v>11.1495</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
         <v>8.6902000000000008</v>
@@ -988,15 +987,15 @@
         <v>10.2179</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
         <v>8.8786000000000005</v>
@@ -1018,15 +1017,15 @@
         <v>10.4587</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
         <v>9.5188000000000006</v>
@@ -1048,15 +1047,15 @@
         <v>10.9537</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>8.9968000000000004</v>
@@ -1078,15 +1077,15 @@
         <v>10.608700000000001</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8.9995999999999992</v>
@@ -1108,15 +1107,15 @@
         <v>10.560499999999999</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2">
         <v>8.5939999999999994</v>
@@ -1138,15 +1137,15 @@
         <v>10.577199999999999</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
         <v>9.4880999999999993</v>
@@ -1168,15 +1167,15 @@
         <v>11.212199999999999</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2">
         <v>9.4640000000000004</v>
@@ -1198,15 +1197,15 @@
         <v>11.2613</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
         <v>9.3041</v>
@@ -1228,15 +1227,15 @@
         <v>11.206799999999999</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
         <v>8.9298000000000002</v>
@@ -1258,15 +1257,15 @@
         <v>10.669</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>8.4735999999999994</v>
@@ -1288,15 +1287,15 @@
         <v>10.2286</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>9.5160999999999998</v>
@@ -1318,10 +1317,10 @@
         <v>11.564299999999999</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
